--- a/datastatic/datasets/online/gender_wage_gap.xlsx
+++ b/datastatic/datasets/online/gender_wage_gap.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="169">
   <si>
     <t>original_title</t>
   </si>
@@ -529,7 +529,7 @@
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="166" formatCode="dd.mm"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -561,6 +561,11 @@
     <font>
       <b/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -602,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -661,6 +666,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -2057,7 +2068,9 @@
       <c r="A43" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="20"/>
+      <c r="B43" s="20" t="s">
+        <v>82</v>
+      </c>
       <c r="C43" s="18" t="s">
         <v>82</v>
       </c>
@@ -2131,8 +2144,10 @@
       <c r="A45" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
+      <c r="B45" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="22"/>
       <c r="D45" s="17" t="s">
         <v>91</v>
       </c>
@@ -2356,8 +2371,8 @@
       <c r="B51" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="21">
+      <c r="C51" s="22"/>
+      <c r="D51" s="23">
         <v>42685.0</v>
       </c>
       <c r="E51" s="2"/>
@@ -2542,7 +2557,7 @@
       <c r="B56" s="19">
         <v>42562.0</v>
       </c>
-      <c r="C56" s="20"/>
+      <c r="C56" s="22"/>
       <c r="D56" s="17" t="s">
         <v>133</v>
       </c>
@@ -2614,7 +2629,7 @@
       <c r="B58" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="C58" s="21">
+      <c r="C58" s="23">
         <v>42688.0</v>
       </c>
       <c r="D58" s="17" t="s">
@@ -2649,8 +2664,10 @@
       <c r="A59" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
+      <c r="B59" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" s="22"/>
       <c r="D59" s="17" t="s">
         <v>142</v>
       </c>
@@ -2683,7 +2700,9 @@
       <c r="A60" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="B60" s="20"/>
+      <c r="B60" s="20" t="s">
+        <v>145</v>
+      </c>
       <c r="C60" s="18" t="s">
         <v>145</v>
       </c>
@@ -2722,7 +2741,7 @@
       <c r="B61" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="C61" s="20"/>
+      <c r="C61" s="22"/>
       <c r="D61" s="17" t="s">
         <v>150</v>
       </c>
@@ -2829,7 +2848,9 @@
       <c r="A64" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="B64" s="20"/>
+      <c r="B64" s="20" t="s">
+        <v>96</v>
+      </c>
       <c r="C64" s="18" t="s">
         <v>96</v>
       </c>
@@ -2863,7 +2884,9 @@
       <c r="A65" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B65" s="2"/>
+      <c r="B65" s="21" t="s">
+        <v>163</v>
+      </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="17" t="s">
@@ -2934,9 +2957,9 @@
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
